--- a/toolbox_data/matrices/hyd_matrix.xlsx
+++ b/toolbox_data/matrices/hyd_matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="0" windowWidth="32840" windowHeight="22680" tabRatio="500"/>
+    <workbookView xWindow="4980" yWindow="0" windowWidth="32840" windowHeight="22680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="210">
   <si>
     <t>Node level</t>
   </si>
@@ -555,15 +555,6 @@
     <t>$Text('ICEOB')</t>
   </si>
   <si>
-    <t>Excel start column</t>
-  </si>
-  <si>
-    <t>Excel first data row</t>
-  </si>
-  <si>
-    <t>Excel header row</t>
-  </si>
-  <si>
     <t xml:space="preserve">$Text('SDATE')+u':'+$Text('STATN')+u':'+$Text('STNNO') </t>
   </si>
   <si>
@@ -643,6 +634,21 @@
   </si>
   <si>
     <t>HYD import</t>
+  </si>
+  <si>
+    <t>Excel sheet name</t>
+  </si>
+  <si>
+    <t>Kolumner</t>
+  </si>
+  <si>
+    <t>Header row</t>
+  </si>
+  <si>
+    <t>First data row</t>
+  </si>
+  <si>
+    <t>First column</t>
   </si>
 </sst>
 </file>
@@ -698,8 +704,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -832,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="141">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -896,6 +916,13 @@
     <cellStyle name="Följd hyperlänk" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -959,6 +986,13 @@
     <cellStyle name="Hyperlänk" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1288,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1327,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
         <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1375,7 +1409,7 @@
         <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1383,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1394,10 +1428,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1405,35 +1439,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1441,17 +1478,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" t="str">
-        <f>I13</f>
-        <v>MYEAR</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1459,17 +1486,17 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ref="J14:J16" si="0">I14</f>
-        <v>SDATE</v>
+        <f>I14</f>
+        <v>MYEAR</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1477,11 +1504,17 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15:J17" si="0">I15</f>
+        <v>SDATE</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1489,221 +1522,219 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>36</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>STATN</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>63</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1711,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1725,13 +1756,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1739,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1753,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1767,50 +1798,56 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>177</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" t="s">
-        <v>42</v>
-      </c>
+      <c r="J39" s="2"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1818,13 +1855,7 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1832,13 +1863,13 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1846,13 +1877,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1860,13 +1891,13 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1874,13 +1905,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1888,13 +1919,13 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1902,13 +1933,13 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1916,13 +1947,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1930,13 +1961,13 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1944,27 +1975,27 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>73</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I52" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1972,13 +2003,13 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -1986,7 +2017,13 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -1994,37 +2031,29 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>27</v>
       </c>
-      <c r="G57" t="s">
-        <v>163</v>
+      <c r="B57" t="s">
+        <v>31</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>27</v>
       </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="1"/>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
       <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" ref="J58:J60" si="1">I58</f>
-        <v>PARAM</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2032,14 +2061,15 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>VALUE</v>
+        <f t="shared" ref="J59:J61" si="1">I59</f>
+        <v>PARAM</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2047,460 +2077,475 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="1"/>
+        <v>VALUE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
         <v>UNIT</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="H62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="H63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="H64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>85</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="H67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>181</v>
+      </c>
+      <c r="H68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="H69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" t="s">
+        <v>180</v>
+      </c>
+      <c r="H70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="H71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" t="s">
         <v>182</v>
       </c>
-      <c r="H65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="H66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
+      <c r="H72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="H73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B74" t="s">
         <v>85</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G74" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="H75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" t="s">
         <v>184</v>
       </c>
-      <c r="H67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="H68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
+      <c r="H76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="H77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B78" t="s">
         <v>85</v>
       </c>
-      <c r="G69" t="s">
-        <v>183</v>
-      </c>
-      <c r="H69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="H70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
+      <c r="G78" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="H79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
         <v>86</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="G71" t="s">
-        <v>185</v>
-      </c>
-      <c r="H71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="H72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+      <c r="G80" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="H81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B82" t="s">
         <v>85</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G82" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="H83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" t="s">
         <v>186</v>
       </c>
-      <c r="H73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="H74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
+      <c r="H84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="H85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G86" t="s">
         <v>187</v>
       </c>
-      <c r="H75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="H76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
+      <c r="H86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="H87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G88" t="s">
         <v>188</v>
       </c>
-      <c r="H77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="H78" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
+      <c r="H88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="H89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
         <v>86</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="G79" t="s">
-        <v>203</v>
-      </c>
-      <c r="H79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="H80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+      <c r="G90" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="H91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B92" t="s">
         <v>85</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="H93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="H95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="G96" t="s">
+        <v>191</v>
+      </c>
+      <c r="H96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="H97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="H99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" t="s">
         <v>202</v>
       </c>
-      <c r="H81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="H82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+      <c r="H100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="H101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B102" t="s">
         <v>85</v>
       </c>
-      <c r="G83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="H84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
+      <c r="G102" t="s">
+        <v>196</v>
+      </c>
+      <c r="H102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="H103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B104" t="s">
         <v>85</v>
       </c>
-      <c r="G85" t="s">
-        <v>190</v>
-      </c>
-      <c r="H85" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="H86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
+      <c r="G104" t="s">
+        <v>192</v>
+      </c>
+      <c r="H104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="H105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B106" t="s">
         <v>85</v>
       </c>
-      <c r="G87" t="s">
-        <v>191</v>
-      </c>
-      <c r="H87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="H88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
+      <c r="G106" t="s">
+        <v>193</v>
+      </c>
+      <c r="H106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="H107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
         <v>86</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B108" t="s">
         <v>85</v>
       </c>
-      <c r="G89" t="s">
-        <v>192</v>
-      </c>
-      <c r="H89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="H90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
+      <c r="G108" t="s">
+        <v>194</v>
+      </c>
+      <c r="H108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="H109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
         <v>86</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B110" t="s">
         <v>85</v>
       </c>
-      <c r="G91" t="s">
-        <v>193</v>
-      </c>
-      <c r="H91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" t="s">
-        <v>85</v>
-      </c>
-      <c r="G93" t="s">
-        <v>201</v>
-      </c>
-      <c r="H93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="H94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" t="s">
-        <v>85</v>
-      </c>
-      <c r="G95" t="s">
-        <v>194</v>
-      </c>
-      <c r="H95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="H96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" t="s">
-        <v>200</v>
-      </c>
-      <c r="H97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="H98" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" t="s">
-        <v>85</v>
-      </c>
-      <c r="G99" t="s">
-        <v>205</v>
-      </c>
-      <c r="H99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="H100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>86</v>
-      </c>
-      <c r="B101" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" t="s">
-        <v>199</v>
-      </c>
-      <c r="H101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="H102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="G110" t="s">
         <v>195</v>
       </c>
-      <c r="H103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="H104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>86</v>
-      </c>
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="G105" t="s">
-        <v>196</v>
-      </c>
-      <c r="H105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="H106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>86</v>
-      </c>
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="G107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="H108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="G109" t="s">
-        <v>198</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="H110" t="s">
+    <row r="111" spans="1:8">
+      <c r="H111" t="s">
         <v>160</v>
       </c>
     </row>
